--- a/nilai.xlsx
+++ b/nilai.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rizqan\Nilai\WEB\PhotoFolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PhotoFolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA0681A-2FB7-4C2F-9E60-CCECDA0D0221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB3A74C-C673-4F12-9941-9B2F9BCA0AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EB27E2FA-37C9-4E83-9FDA-1B796547467F}"/>
   </bookViews>
@@ -312,7 +312,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{D47C5BF1-A99E-48ED-B700-4E88EB99CA4D}"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -324,6 +332,38 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF8439BD"/>
+          <bgColor rgb="FF8439BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6BDE42"/>
+          <bgColor rgb="FF6BDE42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
@@ -340,6 +380,30 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF6BDE42"/>
+          <bgColor rgb="FF6BDE42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8439BD"/>
+          <bgColor rgb="FF8439BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
@@ -356,344 +420,24 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF8439BD"/>
+          <bgColor rgb="FF8439BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8439BD"/>
-          <bgColor rgb="FF8439BD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6BDE42"/>
-          <bgColor rgb="FF6BDE42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8439BD"/>
-          <bgColor rgb="FF8439BD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6BDE42"/>
-          <bgColor rgb="FF6BDE42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8439BD"/>
-          <bgColor rgb="FF8439BD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6BDE42"/>
-          <bgColor rgb="FF6BDE42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8439BD"/>
-          <bgColor rgb="FF8439BD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6BDE42"/>
-          <bgColor rgb="FF6BDE42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8439BD"/>
-          <bgColor rgb="FF8439BD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6BDE42"/>
-          <bgColor rgb="FF6BDE42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8439BD"/>
-          <bgColor rgb="FF8439BD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6BDE42"/>
-          <bgColor rgb="FF6BDE42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8439BD"/>
-          <bgColor rgb="FF8439BD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6BDE42"/>
-          <bgColor rgb="FF6BDE42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8439BD"/>
-          <bgColor rgb="FF8439BD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6BDE42"/>
-          <bgColor rgb="FF6BDE42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8439BD"/>
-          <bgColor rgb="FF8439BD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6BDE42"/>
-          <bgColor rgb="FF6BDE42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8439BD"/>
-          <bgColor rgb="FF8439BD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6BDE42"/>
-          <bgColor rgb="FF6BDE42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8439BD"/>
-          <bgColor rgb="FF8439BD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1041,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96726B80-7617-4271-AAD0-3AE15B8D7A97}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:D28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,7 +1104,7 @@
         <v>24</v>
       </c>
       <c r="D21" s="6">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1644,158 +1388,60 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D45">
     <sortCondition descending="1" ref="D2:D45"/>
   </sortState>
-  <conditionalFormatting sqref="C2:C5">
-    <cfRule type="containsText" dxfId="51" priority="45" operator="containsText" text="a">
+  <conditionalFormatting sqref="C2:C12">
+    <cfRule type="containsText" dxfId="19" priority="37" operator="containsText" text="a">
       <formula>NOT(ISERROR(SEARCH(("a"),(C2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="46" operator="containsText" text="p">
+    <cfRule type="containsText" dxfId="18" priority="38" operator="containsText" text="p">
       <formula>NOT(ISERROR(SEARCH(("p"),(C2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="17" priority="39" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH(("s"),(C2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="16" priority="40" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH(("1"),(C2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C11">
-    <cfRule type="containsText" dxfId="47" priority="41" operator="containsText" text="a">
-      <formula>NOT(ISERROR(SEARCH(("a"),(C6))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="42" operator="containsText" text="p">
-      <formula>NOT(ISERROR(SEARCH(("p"),(C6))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="43" operator="containsText" text="s">
-      <formula>NOT(ISERROR(SEARCH(("s"),(C6))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="44" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH(("1"),(C6))))</formula>
+  <conditionalFormatting sqref="C12:C16">
+    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="s">
+      <formula>NOT(ISERROR(SEARCH(("s"),(C12))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="a">
+      <formula>NOT(ISERROR(SEARCH(("a"),(C12))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="30" operator="containsText" text="p">
+      <formula>NOT(ISERROR(SEARCH(("p"),(C12))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="32" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH(("1"),(C12))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="43" priority="37" operator="containsText" text="a">
-      <formula>NOT(ISERROR(SEARCH(("a"),(C12))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="38" operator="containsText" text="p">
-      <formula>NOT(ISERROR(SEARCH(("p"),(C12))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="s">
-      <formula>NOT(ISERROR(SEARCH(("s"),(C12))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH(("1"),(C12))))</formula>
+  <conditionalFormatting sqref="C14:C26">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="a">
+      <formula>NOT(ISERROR(SEARCH(("a"),(C14))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="p">
+      <formula>NOT(ISERROR(SEARCH(("p"),(C14))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="s">
+      <formula>NOT(ISERROR(SEARCH(("s"),(C14))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH(("1"),(C14))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C13">
-    <cfRule type="containsText" dxfId="39" priority="33" operator="containsText" text="a">
-      <formula>NOT(ISERROR(SEARCH(("a"),(C12))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="34" operator="containsText" text="p">
-      <formula>NOT(ISERROR(SEARCH(("p"),(C12))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="s">
-      <formula>NOT(ISERROR(SEARCH(("s"),(C12))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH(("1"),(C12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C16">
-    <cfRule type="containsText" dxfId="35" priority="25" operator="containsText" text="a">
-      <formula>NOT(ISERROR(SEARCH(("a"),(C14))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="26" operator="containsText" text="p">
-      <formula>NOT(ISERROR(SEARCH(("p"),(C14))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="27" operator="containsText" text="s">
-      <formula>NOT(ISERROR(SEARCH(("s"),(C14))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH(("1"),(C14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C16">
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="a">
-      <formula>NOT(ISERROR(SEARCH(("a"),(C14))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="p">
-      <formula>NOT(ISERROR(SEARCH(("p"),(C14))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="s">
-      <formula>NOT(ISERROR(SEARCH(("s"),(C14))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH(("1"),(C14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C19">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="a">
-      <formula>NOT(ISERROR(SEARCH(("a"),(C17))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="p">
-      <formula>NOT(ISERROR(SEARCH(("p"),(C17))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="s">
-      <formula>NOT(ISERROR(SEARCH(("s"),(C17))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH(("1"),(C17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C24">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="a">
-      <formula>NOT(ISERROR(SEARCH(("a"),(C20))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="p">
-      <formula>NOT(ISERROR(SEARCH(("p"),(C20))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="s">
-      <formula>NOT(ISERROR(SEARCH(("s"),(C20))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH(("1"),(C20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C26">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="a">
+  <conditionalFormatting sqref="C25:C28">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="p">
+      <formula>NOT(ISERROR(SEARCH(("p"),(C25))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="s">
+      <formula>NOT(ISERROR(SEARCH(("s"),(C25))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH(("1"),(C25))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="a">
       <formula>NOT(ISERROR(SEARCH(("a"),(C25))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="p">
-      <formula>NOT(ISERROR(SEARCH(("p"),(C25))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="s">
-      <formula>NOT(ISERROR(SEARCH(("s"),(C25))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH(("1"),(C25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C26">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="a">
-      <formula>NOT(ISERROR(SEARCH(("a"),(C25))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="p">
-      <formula>NOT(ISERROR(SEARCH(("p"),(C25))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="s">
-      <formula>NOT(ISERROR(SEARCH(("s"),(C25))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH(("1"),(C25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C28">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="a">
-      <formula>NOT(ISERROR(SEARCH(("a"),(C27))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="p">
-      <formula>NOT(ISERROR(SEARCH(("p"),(C27))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="s">
-      <formula>NOT(ISERROR(SEARCH(("s"),(C27))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH(("1"),(C27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
@@ -1805,11 +1451,11 @@
     <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="p">
       <formula>NOT(ISERROR(SEARCH(("p"),(C28))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH(("1"),(C28))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH(("s"),(C28))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH(("1"),(C28))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nilai.xlsx
+++ b/nilai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PhotoFolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB3A74C-C673-4F12-9941-9B2F9BCA0AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C884FD-A0B0-4288-A961-7BCBE726A370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EB27E2FA-37C9-4E83-9FDA-1B796547467F}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>No</t>
   </si>
@@ -316,6 +316,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF6BDE42"/>
+          <bgColor rgb="FF6BDE42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
@@ -324,6 +332,22 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF8439BD"/>
+          <bgColor rgb="FF8439BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FF6BDE42"/>
           <bgColor rgb="FF6BDE42"/>
         </patternFill>
@@ -332,6 +356,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FF8439BD"/>
           <bgColor rgb="FF8439BD"/>
         </patternFill>
@@ -348,6 +380,30 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF6BDE42"/>
+          <bgColor rgb="FF6BDE42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8439BD"/>
+          <bgColor rgb="FF8439BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
@@ -380,64 +436,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF6BDE42"/>
-          <bgColor rgb="FF6BDE42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8439BD"/>
-          <bgColor rgb="FF8439BD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6BDE42"/>
-          <bgColor rgb="FF6BDE42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8439BD"/>
-          <bgColor rgb="FF8439BD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96726B80-7617-4271-AAD0-3AE15B8D7A97}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,8 +1159,8 @@
       <c r="C25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>8</v>
+      <c r="D25" s="9">
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1187,8 +1187,8 @@
       <c r="C27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>8</v>
+      <c r="D27" s="9">
+        <v>86</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1403,14 +1403,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C16">
-    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="15" priority="29" operator="containsText" text="a">
+      <formula>NOT(ISERROR(SEARCH(("a"),(C12))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="30" operator="containsText" text="p">
+      <formula>NOT(ISERROR(SEARCH(("p"),(C12))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="31" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH(("s"),(C12))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="a">
-      <formula>NOT(ISERROR(SEARCH(("a"),(C12))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="30" operator="containsText" text="p">
-      <formula>NOT(ISERROR(SEARCH(("p"),(C12))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="32" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH(("1"),(C12))))</formula>
@@ -1431,17 +1431,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C28">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="p">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="a">
+      <formula>NOT(ISERROR(SEARCH(("a"),(C25))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="p">
       <formula>NOT(ISERROR(SEARCH(("p"),(C25))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH(("s"),(C25))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH(("1"),(C25))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="a">
-      <formula>NOT(ISERROR(SEARCH(("a"),(C25))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
@@ -1451,11 +1451,11 @@
     <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="p">
       <formula>NOT(ISERROR(SEARCH(("p"),(C28))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="s">
+      <formula>NOT(ISERROR(SEARCH(("s"),(C28))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH(("1"),(C28))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="s">
-      <formula>NOT(ISERROR(SEARCH(("s"),(C28))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nilai.xlsx
+++ b/nilai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PhotoFolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C884FD-A0B0-4288-A961-7BCBE726A370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705A8C16-1A86-442F-BF07-4FA9F1953A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EB27E2FA-37C9-4E83-9FDA-1B796547467F}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>No</t>
   </si>
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96726B80-7617-4271-AAD0-3AE15B8D7A97}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,8 +991,8 @@
       <c r="C13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>8</v>
+      <c r="D13" s="6">
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">

--- a/nilai.xlsx
+++ b/nilai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PhotoFolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705A8C16-1A86-442F-BF07-4FA9F1953A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6070D5F7-A0B9-41FA-9663-7FF696620796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EB27E2FA-37C9-4E83-9FDA-1B796547467F}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>No</t>
   </si>
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96726B80-7617-4271-AAD0-3AE15B8D7A97}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,8 +1005,8 @@
       <c r="C14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>8</v>
+      <c r="D14" s="9">
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1203,8 +1203,8 @@
       <c r="C28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>8</v>
+      <c r="D28" s="9">
+        <v>92</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>

--- a/nilai.xlsx
+++ b/nilai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PhotoFolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6070D5F7-A0B9-41FA-9663-7FF696620796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF9887C-0054-412A-ACE5-0100D6390308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EB27E2FA-37C9-4E83-9FDA-1B796547467F}"/>
   </bookViews>
@@ -154,17 +154,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -786,7 +789,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +995,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="6">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">

--- a/nilai.xlsx
+++ b/nilai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PhotoFolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF9887C-0054-412A-ACE5-0100D6390308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DCFACE-70A8-4047-9410-4FF2BF2B596E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EB27E2FA-37C9-4E83-9FDA-1B796547467F}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>No</t>
   </si>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96726B80-7617-4271-AAD0-3AE15B8D7A97}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,8 +1036,8 @@
       <c r="C16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>8</v>
+      <c r="D16" s="9">
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1092,8 +1092,8 @@
       <c r="C20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>8</v>
+      <c r="D20" s="9">
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">

--- a/nilai.xlsx
+++ b/nilai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PhotoFolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DCFACE-70A8-4047-9410-4FF2BF2B596E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0745FDC-7009-42C5-A51D-CF1FAD02C751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EB27E2FA-37C9-4E83-9FDA-1B796547467F}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>No</t>
   </si>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96726B80-7617-4271-AAD0-3AE15B8D7A97}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,8 +830,8 @@
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>8</v>
+      <c r="D2" s="9">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1022,8 +1022,8 @@
       <c r="C15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>8</v>
+      <c r="D15" s="9">
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1148,8 +1148,8 @@
       <c r="C24" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>8</v>
+      <c r="D24" s="9">
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1207,7 +1207,7 @@
         <v>24</v>
       </c>
       <c r="D28" s="9">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
